--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_14_28.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_14_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1998652.622706898</v>
+        <v>1996317.511504918</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283177</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9956957.483222375</v>
+        <v>9956957.483222373</v>
       </c>
     </row>
     <row r="11">
@@ -659,16 +659,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>72.94942429078246</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>411.547702772954</v>
@@ -677,7 +677,7 @@
         <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,22 +710,22 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>81.4566200670443</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -817,13 +817,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -862,16 +862,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>185.5217629586822</v>
       </c>
       <c r="Y4" t="n">
-        <v>97.59658886681154</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
-        <v>62.69963164234773</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>56.70882917873416</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,19 +944,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -1051,10 +1051,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1063,10 +1063,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>50.98074812542793</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1099,22 +1099,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>96.97633795874938</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1130,22 +1130,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>128.2538703177676</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
@@ -1190,13 +1190,13 @@
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>24.93375787515191</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1288,10 +1288,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1339,7 +1339,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>6.380068175847704</v>
+        <v>42.67804628306391</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
@@ -1373,7 +1373,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695619</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1525,10 +1525,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>179.831980181939</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503956</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1537,13 +1537,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>35.88641949135634</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1658,7 +1658,7 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1765,22 +1765,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229271</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>121.8000472740351</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1828,10 +1828,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>12.96996784160334</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187879</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -2008,16 +2008,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419834261</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2053,10 +2053,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>5.890337106879387</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187863</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2132,7 +2132,7 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2248,16 +2248,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>83.06560892428213</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>21.90286287505422</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2479,7 +2479,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>113.6427030833208</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2494,7 +2494,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2527,13 +2527,13 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>160.1763464053464</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187888</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2713,19 +2713,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>28.75188085812055</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>27.02919805176154</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695619</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2953,16 +2953,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
@@ -2998,7 +2998,7 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
-        <v>123.797182079703</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>31.83025205764035</v>
       </c>
     </row>
     <row r="32">
@@ -3044,7 +3044,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3092,7 +3092,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.7311006784694</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>139.5115415340502</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -3193,16 +3193,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,16 +3232,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>255.2269336503894</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3314,13 +3314,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3424,25 +3424,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>121.8000472740347</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462217</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3484,13 +3484,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>220.1787488016114</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3664,7 +3664,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>1.799772605716168</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3673,13 +3673,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>18.7084378797731</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3749,13 +3749,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417092</v>
       </c>
       <c r="G41" t="n">
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695534</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3834,7 +3834,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H42" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3867,7 +3867,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364135</v>
       </c>
       <c r="T42" t="n">
         <v>188.3046392154443</v>
@@ -3901,22 +3901,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>20.88994825141494</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856556</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012171</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -4141,19 +4141,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>62.64725059288511</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4189,7 +4189,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>228.9553704673023</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4304,16 +4304,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1634.158487398107</v>
+        <v>918.0161179218655</v>
       </c>
       <c r="C2" t="n">
-        <v>1634.158487398107</v>
+        <v>844.329830759459</v>
       </c>
       <c r="D2" t="n">
-        <v>1634.158487398107</v>
+        <v>844.329830759459</v>
       </c>
       <c r="E2" t="n">
-        <v>1248.370234799863</v>
+        <v>844.329830759459</v>
       </c>
       <c r="F2" t="n">
         <v>837.3843300102556</v>
@@ -4328,16 +4328,16 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816088</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872924</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4358,22 +4358,22 @@
         <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2437.640120926626</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U2" t="n">
-        <v>2437.640120926626</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V2" t="n">
-        <v>2106.577233583055</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W2" t="n">
-        <v>2106.577233583055</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="X2" t="n">
-        <v>2024.297819373919</v>
+        <v>918.0161179218655</v>
       </c>
       <c r="Y2" t="n">
-        <v>1634.158487398107</v>
+        <v>918.0161179218655</v>
       </c>
     </row>
     <row r="3">
@@ -4401,25 +4401,25 @@
         <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I3" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500113</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310613</v>
+        <v>684.9695361605189</v>
       </c>
       <c r="L3" t="n">
-        <v>593.0223835625329</v>
+        <v>1092.885047004312</v>
       </c>
       <c r="M3" t="n">
-        <v>956.284402521753</v>
+        <v>1456.147065963532</v>
       </c>
       <c r="N3" t="n">
-        <v>1541.323645957601</v>
+        <v>1843.432194560477</v>
       </c>
       <c r="O3" t="n">
         <v>2175.502629736639</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>770.9577966591559</v>
+        <v>303.9918807365201</v>
       </c>
       <c r="C4" t="n">
-        <v>602.021613731249</v>
+        <v>303.9918807365201</v>
       </c>
       <c r="D4" t="n">
-        <v>451.9049743189132</v>
+        <v>303.9918807365201</v>
       </c>
       <c r="E4" t="n">
         <v>303.9918807365201</v>
       </c>
       <c r="F4" t="n">
-        <v>157.1019332386098</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="G4" t="n">
-        <v>157.1019332386098</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="H4" t="n">
-        <v>157.1019332386098</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="I4" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312198</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1533.862713590079</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>1533.862713590079</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="T4" t="n">
-        <v>1533.862713590079</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="U4" t="n">
-        <v>1533.862713590079</v>
+        <v>927.7205539329318</v>
       </c>
       <c r="V4" t="n">
-        <v>1279.178225384192</v>
+        <v>673.036065727045</v>
       </c>
       <c r="W4" t="n">
-        <v>1279.178225384192</v>
+        <v>673.036065727045</v>
       </c>
       <c r="X4" t="n">
-        <v>1051.188674486175</v>
+        <v>485.6403455667598</v>
       </c>
       <c r="Y4" t="n">
-        <v>952.6062614893956</v>
+        <v>485.6403455667598</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>603.603648011926</v>
+        <v>1589.988596769088</v>
       </c>
       <c r="C5" t="n">
-        <v>603.603648011926</v>
+        <v>1221.026079828677</v>
       </c>
       <c r="D5" t="n">
-        <v>603.603648011926</v>
+        <v>1221.026079828677</v>
       </c>
       <c r="E5" t="n">
-        <v>603.603648011926</v>
+        <v>835.2378272304325</v>
       </c>
       <c r="F5" t="n">
-        <v>192.6177432223184</v>
+        <v>828.292326481229</v>
       </c>
       <c r="G5" t="n">
-        <v>180.9533969870114</v>
+        <v>412.5875762055178</v>
       </c>
       <c r="H5" t="n">
-        <v>117.6204357321147</v>
+        <v>108.5284322030881</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800308</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362815</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816079</v>
+        <v>442.5171852816085</v>
       </c>
       <c r="L5" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230816</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O5" t="n">
-        <v>2055.228484740839</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764996</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.250581723849</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400154</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.640120926624</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T5" t="n">
-        <v>2437.640120926624</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="U5" t="n">
-        <v>2437.640120926624</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="V5" t="n">
-        <v>2106.577233583053</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="W5" t="n">
-        <v>1753.808578312939</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="X5" t="n">
-        <v>1380.342820051859</v>
+        <v>1980.1279287449</v>
       </c>
       <c r="Y5" t="n">
-        <v>990.2034880760477</v>
+        <v>1589.988596769088</v>
       </c>
     </row>
     <row r="6">
@@ -4620,49 +4620,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E6" t="n">
-        <v>448.6792471488048</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057902</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800308</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
-        <v>238.427330237016</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>614.5430248380227</v>
+        <v>423.148951518066</v>
       </c>
       <c r="L6" t="n">
-        <v>909.2465818694943</v>
+        <v>717.8525085495377</v>
       </c>
       <c r="M6" t="n">
-        <v>1272.508600828714</v>
+        <v>1081.114527508758</v>
       </c>
       <c r="N6" t="n">
-        <v>1659.79372942566</v>
+        <v>1468.399656105703</v>
       </c>
       <c r="O6" t="n">
-        <v>1991.864164601821</v>
+        <v>2102.578639884741</v>
       </c>
       <c r="P6" t="n">
-        <v>2239.046898434118</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.339328400155</v>
@@ -4677,7 +4677,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4686,7 +4686,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>716.5983551657491</v>
+        <v>349.2765195627319</v>
       </c>
       <c r="C7" t="n">
-        <v>547.6621722378422</v>
+        <v>349.2765195627319</v>
       </c>
       <c r="D7" t="n">
-        <v>397.5455328255065</v>
+        <v>199.1598801503962</v>
       </c>
       <c r="E7" t="n">
-        <v>249.6324392431134</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F7" t="n">
-        <v>102.742491745203</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G7" t="n">
-        <v>51.24678656800308</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H7" t="n">
-        <v>51.24678656800308</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800308</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312195</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K7" t="n">
         <v>248.4064713020475</v>
@@ -4747,28 +4747,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1636.446120074497</v>
+        <v>1538.490223146467</v>
       </c>
       <c r="S7" t="n">
-        <v>1636.446120074497</v>
+        <v>1341.861475306328</v>
       </c>
       <c r="T7" t="n">
-        <v>1636.446120074497</v>
+        <v>1341.861475306328</v>
       </c>
       <c r="U7" t="n">
-        <v>1636.446120074497</v>
+        <v>1052.743137810166</v>
       </c>
       <c r="V7" t="n">
-        <v>1636.446120074497</v>
+        <v>798.0586496042794</v>
       </c>
       <c r="W7" t="n">
-        <v>1347.028950037536</v>
+        <v>798.0586496042794</v>
       </c>
       <c r="X7" t="n">
-        <v>1119.039399139519</v>
+        <v>570.069098706262</v>
       </c>
       <c r="Y7" t="n">
-        <v>898.2468199959889</v>
+        <v>349.2765195627319</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1601.11348746897</v>
+        <v>1308.370295943747</v>
       </c>
       <c r="C8" t="n">
-        <v>1232.150970528558</v>
+        <v>939.4077790033357</v>
       </c>
       <c r="D8" t="n">
-        <v>1232.150970528558</v>
+        <v>809.8584150459947</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>424.0701624477504</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>417.1246616985469</v>
       </c>
       <c r="G8" t="n">
         <v>406.0926155839475</v>
@@ -4799,55 +4799,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939506</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136264</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520486</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794323</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>2730.621314779018</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W8" t="n">
-        <v>2377.852659508903</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X8" t="n">
-        <v>2377.852659508903</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y8" t="n">
-        <v>1987.713327533092</v>
+        <v>1308.370295943747</v>
       </c>
     </row>
     <row r="9">
@@ -4872,13 +4872,13 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
         <v>160.1893859228005</v>
@@ -4896,7 +4896,7 @@
         <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>235.4482993600903</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="C10" t="n">
-        <v>66.51211643218339</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="D10" t="n">
-        <v>66.51211643218339</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="E10" t="n">
-        <v>66.51211643218339</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218339</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218339</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
         <v>111.6347488791189</v>
@@ -4987,25 +4987,25 @@
         <v>1927.294548088492</v>
       </c>
       <c r="S10" t="n">
-        <v>1920.850034779555</v>
+        <v>1884.185410428832</v>
       </c>
       <c r="T10" t="n">
-        <v>1699.083419349081</v>
+        <v>1662.418794998358</v>
       </c>
       <c r="U10" t="n">
-        <v>1409.980552474725</v>
+        <v>1373.315928124002</v>
       </c>
       <c r="V10" t="n">
-        <v>1155.296064268838</v>
+        <v>1118.631439918115</v>
       </c>
       <c r="W10" t="n">
-        <v>865.8788942318774</v>
+        <v>829.2142698811541</v>
       </c>
       <c r="X10" t="n">
-        <v>637.8893433338601</v>
+        <v>601.2247189831368</v>
       </c>
       <c r="Y10" t="n">
-        <v>417.09676419033</v>
+        <v>380.4321398396066</v>
       </c>
     </row>
     <row r="11">
@@ -5033,37 +5033,37 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
         <v>4606.285157492578</v>
@@ -5075,13 +5075,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,22 +5112,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468473</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M12" t="n">
-        <v>1072.713683962606</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N12" t="n">
         <v>1307.627092998424</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1016.58045691144</v>
+        <v>513.85360074007</v>
       </c>
       <c r="C13" t="n">
-        <v>847.644273983533</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D13" t="n">
-        <v>697.5276345711973</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E13" t="n">
-        <v>549.6145409888042</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782958</v>
@@ -5206,7 +5206,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
         <v>1665.560112570818</v>
@@ -5215,34 +5215,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>2191.112710026075</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1936.428221820188</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1647.011051783227</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>1419.02150088521</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y13" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="14">
@@ -5270,16 +5270,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K14" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5297,13 +5297,13 @@
         <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
         <v>4405.252601474784</v>
@@ -5312,13 +5312,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,31 +5349,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>315.9123021921476</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>315.9123021921476</v>
       </c>
       <c r="M15" t="n">
-        <v>1072.713683962606</v>
+        <v>913.2907898186995</v>
       </c>
       <c r="N15" t="n">
-        <v>1307.627092998424</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
         <v>2516.421633107662</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1016.580456911436</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C16" t="n">
-        <v>847.6442739835288</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D16" t="n">
-        <v>697.5276345711931</v>
+        <v>363.7369613277359</v>
       </c>
       <c r="E16" t="n">
-        <v>549.6145409887999</v>
+        <v>363.7369613277359</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908938</v>
+        <v>216.8470138298256</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>216.8470138298256</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782958</v>
@@ -5458,28 +5458,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>1211.329899359456</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>1198.228921741675</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168625</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T17" t="n">
         <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="18">
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="K18" t="n">
-        <v>280.8495004245705</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L18" t="n">
-        <v>776.1751066403293</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M18" t="n">
-        <v>1373.553594266881</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400758</v>
       </c>
       <c r="C19" t="n">
-        <v>847.644273983533</v>
+        <v>344.9174178121689</v>
       </c>
       <c r="D19" t="n">
-        <v>697.5276345711973</v>
+        <v>194.8007783998331</v>
       </c>
       <c r="E19" t="n">
-        <v>549.6145409888042</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782958</v>
@@ -5680,43 +5680,43 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910813</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570822</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279807</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853365</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.963083580265</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832665</v>
+        <v>2379.917379832667</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487569</v>
+        <v>2197.062545487572</v>
       </c>
       <c r="T19" t="n">
-        <v>2191.112710026075</v>
+        <v>1977.461080510513</v>
       </c>
       <c r="U19" t="n">
-        <v>2191.112710026075</v>
+        <v>1688.385853854711</v>
       </c>
       <c r="V19" t="n">
-        <v>1936.428221820188</v>
+        <v>1433.701365648824</v>
       </c>
       <c r="W19" t="n">
-        <v>1647.011051783227</v>
+        <v>1144.284195611863</v>
       </c>
       <c r="X19" t="n">
-        <v>1419.02150088521</v>
+        <v>916.2946447138456</v>
       </c>
       <c r="Y19" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703155</v>
       </c>
     </row>
     <row r="20">
@@ -5726,19 +5726,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5750,10 +5750,10 @@
         <v>95.34095638192598</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332386</v>
@@ -5783,19 +5783,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5832,25 +5832,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>280.8495004245705</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L21" t="n">
-        <v>776.1751066403293</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M21" t="n">
-        <v>1373.553594266881</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N21" t="n">
-        <v>2001.151557821488</v>
+        <v>1652.717886400351</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>2204.627616639638</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5896,13 +5896,13 @@
         <v>344.9174178121648</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>198.0274703142544</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5975,16 +5975,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111701</v>
@@ -6023,13 +6023,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6066,22 +6066,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>150.8995423128888</v>
       </c>
       <c r="K24" t="n">
-        <v>280.8495004245705</v>
+        <v>484.8243144841094</v>
       </c>
       <c r="L24" t="n">
-        <v>776.1751066403293</v>
+        <v>980.1499206998682</v>
       </c>
       <c r="M24" t="n">
-        <v>1373.553594266881</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N24" t="n">
-        <v>2001.151557821488</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>768.5380889459586</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908938</v>
+        <v>599.6019060180517</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6175,22 +6175,22 @@
         <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1398.968683817746</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>950.1865537761984</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004715</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406471</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168629</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.8166630479719</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="27">
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>280.8495004245705</v>
+        <v>577.3880777468472</v>
       </c>
       <c r="L27" t="n">
-        <v>776.1751066403293</v>
+        <v>943.5102657467545</v>
       </c>
       <c r="M27" t="n">
-        <v>1373.553594266881</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="N27" t="n">
-        <v>2001.151557821488</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6361,25 +6361,25 @@
         <v>513.8536007400717</v>
       </c>
       <c r="C28" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D28" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429802</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429802</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782958</v>
@@ -6458,34 +6458,34 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
         <v>4606.285157492578</v>
@@ -6497,13 +6497,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
-        <v>589.1422692637307</v>
+        <v>710.248605371872</v>
       </c>
       <c r="M30" t="n">
-        <v>1186.520756890282</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N30" t="n">
-        <v>1814.118720444889</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>702.4944101284095</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908938</v>
+        <v>533.5582272005026</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908938</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908938</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908938</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G31" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782958</v>
@@ -6646,25 +6646,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>884.1428749586493</v>
       </c>
     </row>
     <row r="32">
@@ -6680,67 +6680,67 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
         <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,25 +6771,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797189</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438171</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O33" t="n">
         <v>1859.536823237711</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>727.9786782557277</v>
+        <v>554.5813165460164</v>
       </c>
       <c r="C34" t="n">
-        <v>559.0424953278208</v>
+        <v>385.6451336181095</v>
       </c>
       <c r="D34" t="n">
-        <v>408.925855915485</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E34" t="n">
-        <v>261.0127623330919</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F34" t="n">
-        <v>261.0127623330919</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797189</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S34" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T34" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U34" t="n">
-        <v>1902.510931370362</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V34" t="n">
-        <v>1647.826443164475</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W34" t="n">
-        <v>1358.409273127515</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X34" t="n">
-        <v>1130.419722229497</v>
+        <v>916.2946447138397</v>
       </c>
       <c r="Y34" t="n">
-        <v>909.6271430859674</v>
+        <v>695.5020655703096</v>
       </c>
     </row>
     <row r="35">
@@ -6926,16 +6926,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075807</v>
@@ -6953,31 +6953,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,28 +7008,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797189</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438171</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P36" t="n">
         <v>2283.159972732779</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>801.6605733532781</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>632.7243904253712</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D37" t="n">
-        <v>632.7243904253712</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E37" t="n">
-        <v>484.811296842978</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="F37" t="n">
-        <v>484.811296842978</v>
+        <v>216.8470138298251</v>
       </c>
       <c r="G37" t="n">
-        <v>317.615197557858</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1211.298589081535</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>983.3090381835178</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>983.3090381835178</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7166,34 +7166,34 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7254,25 +7254,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M39" t="n">
-        <v>691.1951506745238</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N39" t="n">
-        <v>1318.793114229131</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O39" t="n">
-        <v>1870.702844468418</v>
+        <v>2102.574735228845</v>
       </c>
       <c r="P39" t="n">
-        <v>2294.325993963486</v>
+        <v>2526.197884723913</v>
       </c>
       <c r="Q39" t="n">
-        <v>2527.587654338369</v>
+        <v>2526.197884723913</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>194.8007783998291</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E40" t="n">
-        <v>194.8007783998291</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F40" t="n">
-        <v>194.8007783998291</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G40" t="n">
-        <v>194.8007783998291</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7385,37 +7385,37 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551872</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.81350961146</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.54781100471</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406466</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
         <v>2206.558663014778</v>
@@ -7424,37 +7424,37 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852253</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.81249946657</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852885</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615994</v>
       </c>
     </row>
     <row r="42">
@@ -7482,34 +7482,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756264</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468469</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>671.2000270096665</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438171</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400703</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121634</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908938</v>
+        <v>323.8164599824514</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908938</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908938</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M43" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S43" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T43" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138402</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>695.50206557031</v>
       </c>
     </row>
     <row r="44">
@@ -7622,37 +7622,37 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
         <v>2206.558663014778</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7722,28 +7722,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438171</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>1965.532750177311</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q45" t="n">
         <v>2516.421633107662</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>762.5477693179085</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908938</v>
+        <v>593.6115863900017</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908938</v>
+        <v>593.6115863900017</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908938</v>
+        <v>445.6984928076085</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908938</v>
+        <v>298.8085453096982</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>298.8085453096982</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>157.0967141518962</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
   </sheetData>
@@ -8055,22 +8055,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>114.3555089013348</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>199.751631150407</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>305.1601501039159</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -8295,7 +8295,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>193.3273467878351</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8307,13 +8307,13 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>305.1601501039159</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>98.24448441976841</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>20.93778120154991</v>
@@ -8945,7 +8945,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>-9.663381206337363e-13</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>-3.871691258985946e-13</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -23416,7 +23416,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>46.45968844823226</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23425,16 +23425,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,16 +23461,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>250.2980548978878</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23492,7 +23492,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23653,22 +23653,22 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>18.49466557218872</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856552</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23716,10 +23716,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>205.6146855104915</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23896,16 +23896,16 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>46.45968844822656</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856552</v>
@@ -23941,10 +23941,10 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>211.5151132204089</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24136,16 +24136,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>62.35543909864911</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>143.6212754172146</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24367,7 +24367,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>34.97276993489153</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24382,7 +24382,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24415,13 +24415,13 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>57.22910392194191</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24601,19 +24601,19 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>138.4949402405073</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>119.4047645948076</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -24841,16 +24841,16 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -24886,7 +24886,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>57.22910392194156</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>186.7544012944545</v>
       </c>
     </row>
     <row r="32">
@@ -25072,7 +25072,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>40.32043864788707</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25081,19 +25081,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856421</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25123,13 +25123,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>30.95754073885479</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25312,25 +25312,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>43.72409101823415</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25372,13 +25372,13 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>66.34424953497958</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25552,7 +25552,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>146.8157004124962</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25561,10 +25561,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>121.5862749664508</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25789,22 +25789,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>127.7255247667974</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -26020,7 +26020,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26029,19 +26029,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>18.61858572568042</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26077,7 +26077,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>57.22910392194188</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>856043.1451846791</v>
+        <v>856043.1451846788</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>856043.1451846791</v>
+        <v>856043.145184679</v>
       </c>
     </row>
     <row r="7">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>856043.1451846788</v>
+        <v>856043.1451846791</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>856043.145184679</v>
+        <v>856043.1451846788</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>856043.145184679</v>
+        <v>856043.1451846788</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>856043.1451846791</v>
+        <v>856043.1451846788</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>856043.145184679</v>
+        <v>856043.1451846788</v>
       </c>
     </row>
     <row r="14">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>856043.1451846788</v>
+        <v>856043.145184679</v>
       </c>
     </row>
   </sheetData>
@@ -26314,46 +26314,46 @@
         <v>574729.2389049985</v>
       </c>
       <c r="C2" t="n">
-        <v>574729.2389049982</v>
+        <v>574729.2389049985</v>
       </c>
       <c r="D2" t="n">
         <v>574729.2389049984</v>
       </c>
       <c r="E2" t="n">
-        <v>565002.6197830046</v>
+        <v>565002.6197830045</v>
       </c>
       <c r="F2" t="n">
-        <v>565002.6197830045</v>
+        <v>565002.6197830043</v>
       </c>
       <c r="G2" t="n">
-        <v>565002.6197830046</v>
+        <v>565002.6197830047</v>
       </c>
       <c r="H2" t="n">
         <v>565002.6197830046</v>
       </c>
       <c r="I2" t="n">
-        <v>565002.6197830045</v>
+        <v>565002.6197830046</v>
       </c>
       <c r="J2" t="n">
-        <v>565002.6197830045</v>
+        <v>565002.6197830046</v>
       </c>
       <c r="K2" t="n">
-        <v>565002.6197830046</v>
+        <v>565002.6197830049</v>
       </c>
       <c r="L2" t="n">
-        <v>565002.6197830046</v>
+        <v>565002.6197830047</v>
       </c>
       <c r="M2" t="n">
         <v>565002.6197830045</v>
       </c>
       <c r="N2" t="n">
+        <v>565002.6197830044</v>
+      </c>
+      <c r="O2" t="n">
         <v>565002.6197830045</v>
       </c>
-      <c r="O2" t="n">
-        <v>565002.6197830046</v>
-      </c>
       <c r="P2" t="n">
-        <v>565002.6197830046</v>
+        <v>565002.6197830045</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.783575919</v>
+        <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,13 +26372,13 @@
         <v>192627.1404403377</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073559</v>
+        <v>325412.4618073555</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.246394276677165e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26393,10 +26393,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>48293.97000819071</v>
+        <v>48293.97000819055</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551199</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>3.026689228136092e-10</v>
       </c>
     </row>
     <row r="4">
@@ -26418,43 +26418,43 @@
         <v>136726.2736921025</v>
       </c>
       <c r="C4" t="n">
-        <v>136726.2736921026</v>
+        <v>136726.2736921025</v>
       </c>
       <c r="D4" t="n">
-        <v>88524.23512810795</v>
+        <v>88524.2351281079</v>
       </c>
       <c r="E4" t="n">
         <v>9337.200356756592</v>
       </c>
       <c r="F4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.200356756564</v>
       </c>
       <c r="G4" t="n">
         <v>9337.200356756592</v>
       </c>
       <c r="H4" t="n">
-        <v>9337.200356756535</v>
+        <v>9337.200356756603</v>
       </c>
       <c r="I4" t="n">
         <v>9337.200356756592</v>
       </c>
       <c r="J4" t="n">
+        <v>9337.20035675649</v>
+      </c>
+      <c r="K4" t="n">
         <v>9337.200356756592</v>
       </c>
-      <c r="K4" t="n">
-        <v>9337.20035675655</v>
-      </c>
       <c r="L4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="M4" t="n">
         <v>9337.200356756592</v>
       </c>
       <c r="N4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="O4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.200356756692</v>
       </c>
       <c r="P4" t="n">
         <v>9337.200356756592</v>
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>92937.77243984472</v>
+      </c>
+      <c r="C5" t="n">
         <v>92937.7724398447</v>
-      </c>
-      <c r="C5" t="n">
-        <v>92937.77243984469</v>
       </c>
       <c r="D5" t="n">
         <v>107933.9405613933</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-769686.5908028681</v>
+        <v>-769686.5908028686</v>
       </c>
       <c r="C6" t="n">
-        <v>345065.1927730509</v>
+        <v>345065.1927730516</v>
       </c>
       <c r="D6" t="n">
         <v>185643.9227751595</v>
       </c>
       <c r="E6" t="n">
-        <v>129130.427794985</v>
+        <v>129095.6898695496</v>
       </c>
       <c r="F6" t="n">
-        <v>454542.889602341</v>
+        <v>454508.1516769049</v>
       </c>
       <c r="G6" t="n">
-        <v>454542.8896023409</v>
+        <v>454508.1516769052</v>
       </c>
       <c r="H6" t="n">
-        <v>454542.8896023409</v>
+        <v>454508.1516769053</v>
       </c>
       <c r="I6" t="n">
-        <v>454542.8896023408</v>
+        <v>454508.1516769052</v>
       </c>
       <c r="J6" t="n">
-        <v>286937.7117923583</v>
+        <v>286902.9738669227</v>
       </c>
       <c r="K6" t="n">
-        <v>454542.8896023409</v>
+        <v>454508.1516769055</v>
       </c>
       <c r="L6" t="n">
-        <v>406248.9195941502</v>
+        <v>406214.1816687148</v>
       </c>
       <c r="M6" t="n">
-        <v>369487.8616668288</v>
+        <v>369453.1237413933</v>
       </c>
       <c r="N6" t="n">
-        <v>454542.8896023408</v>
+        <v>454508.151676905</v>
       </c>
       <c r="O6" t="n">
-        <v>454542.8896023409</v>
+        <v>454508.1516769054</v>
       </c>
       <c r="P6" t="n">
-        <v>454542.8896023409</v>
+        <v>454508.1516769048</v>
       </c>
     </row>
   </sheetData>
@@ -26701,7 +26701,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1.015790261611063e-14</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -26722,7 +26722,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>7.92316404056629e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
         <v>934.0648921175391</v>
@@ -26774,7 +26774,7 @@
         <v>1367.975500341674</v>
       </c>
       <c r="O3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341673</v>
       </c>
       <c r="P3" t="n">
         <v>1367.975500341674</v>
@@ -26790,16 +26790,16 @@
         <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000385</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022923</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099649</v>
@@ -26811,16 +26811,16 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
+        <v>1172.708288099649</v>
+      </c>
+      <c r="K4" t="n">
         <v>1172.708288099648</v>
       </c>
-      <c r="K4" t="n">
-        <v>1172.708288099649</v>
-      </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26932,7 +26932,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>7.92316404056629e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>155.711808475759</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483761</v>
+        <v>278.1987997483759</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26999,7 +26999,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="4">
@@ -27018,13 +27018,13 @@
         <v>190.8166233022538</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973563</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000392</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>190.8166233022538</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973563</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>7.92316404056629e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27264,13 +27264,13 @@
         <v>190.8166233022538</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973563</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27379,16 +27379,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>292.3234674802251</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27430,22 +27430,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>288.2744806114247</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27537,13 +27537,13 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27552,7 +27552,7 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27582,16 +27582,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27600,10 +27600,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>40.18789243035491</v>
       </c>
       <c r="Y4" t="n">
-        <v>120.9880644852832</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>238.3189209200576</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>9.001083493736331</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,19 +27664,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27771,10 +27771,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27783,10 +27783,10 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>115.3258519193762</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
         <v>147.2515091551289</v>
@@ -27819,22 +27819,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>4.581234460824248</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27850,22 +27850,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>226.4291713029153</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27910,13 +27910,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>302.818500594983</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,10 +28008,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28023,10 +28023,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983812</v>
@@ -28059,7 +28059,7 @@
         <v>88.93215267004734</v>
       </c>
       <c r="S10" t="n">
-        <v>183.3889571555942</v>
+        <v>147.090979048378</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -28093,7 +28093,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -28245,7 +28245,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>-3.220922302743453e-13</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -28378,7 +28378,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>-1.250555214937776e-12</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -28494,7 +28494,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>4.147674796210292e-12</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>-5.621818412198717e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28752,7 +28752,7 @@
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>4.147674796210292e-12</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
@@ -28764,7 +28764,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.319714707885093e-12</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>2.8421709430404e-13</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -29764,7 +29764,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -29925,7 +29925,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>1.319714707885093e-12</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -30159,7 +30159,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>2.168102734382652e-12</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -30469,7 +30469,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>2.216893335571513e-12</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -31039,46 +31039,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T2" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31121,10 +31121,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31133,34 +31133,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R3" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31203,7 +31203,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31218,10 +31218,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31230,16 +31230,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31750,40 +31750,40 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
         <v>125.3175546292901</v>
@@ -31792,7 +31792,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31838,25 +31838,25 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422587</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473074</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>734.267838362266</v>
       </c>
       <c r="N12" t="n">
-        <v>368.6279838366843</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>561.87657862147</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
         <v>375.5996128485291</v>
@@ -31865,7 +31865,7 @@
         <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
@@ -31908,13 +31908,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796262</v>
@@ -31932,7 +31932,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
@@ -31944,7 +31944,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -32075,19 +32075,19 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>362.1804684129204</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>368.6279838366847</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437244</v>
@@ -32096,7 +32096,7 @@
         <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>182.6892564418561</v>
@@ -32315,28 +32315,28 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>326.7634969305192</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>454.5879800486393</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742439</v>
@@ -32476,7 +32476,7 @@
         <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162548</v>
       </c>
       <c r="M20" t="n">
         <v>965.6463440175677</v>
@@ -32552,10 +32552,10 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>326.7634969305192</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862122</v>
@@ -32567,13 +32567,13 @@
         <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>448.9178583921318</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742439</v>
@@ -32704,10 +32704,10 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663268</v>
       </c>
       <c r="K23" t="n">
         <v>699.5441750817577</v>
@@ -32786,10 +32786,10 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>184.4971006716333</v>
       </c>
       <c r="K24" t="n">
-        <v>326.7634969305192</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473073</v>
@@ -32798,13 +32798,13 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -33023,31 +33023,31 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>326.7634969305192</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>508.3747716989724</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742439</v>
@@ -33257,34 +33257,34 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>270.97169333569</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
         <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742439</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>194.5189324111251</v>
       </c>
       <c r="M33" t="n">
-        <v>734.2678383622658</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>734.2678383622658</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>530.4152909475304</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,10 +33962,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
@@ -33974,37 +33974,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>171.4104471179097</v>
+        <v>172.8142548092792</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H41" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135338</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817573</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162558</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175671</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159422</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460025</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236505</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.873223366922</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043724</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078744</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659448</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.41775520521099</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422584</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>233.313924489793</v>
       </c>
       <c r="M42" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862118</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071782</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>375.5996128485289</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T42" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,46 +34281,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869272</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106787</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P43" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417313</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>699.0496615458086</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,31 +34775,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091739</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434848</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378501</v>
+        <v>412.0358695391851</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N3" t="n">
-        <v>590.9487307432809</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O3" t="n">
-        <v>640.5848321000389</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308545</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977091</v>
+        <v>24.58388860977094</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K4" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35015,7 +35015,7 @@
         <v>189.0712562313262</v>
       </c>
       <c r="K6" t="n">
-        <v>379.9148430313199</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L6" t="n">
         <v>297.6803606378501</v>
@@ -35027,13 +35027,13 @@
         <v>391.1970995928739</v>
       </c>
       <c r="O6" t="n">
-        <v>335.424681996123</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235322</v>
+        <v>347.9240135433006</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667036</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35404,31 +35404,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902405</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754089</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678997</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674332</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>592.1338044402477</v>
       </c>
       <c r="N12" t="n">
-        <v>237.286271753351</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992801</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071398</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
         <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789216</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
         <v>264.332588409635</v>
@@ -35577,7 +35577,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
         <v>373.2618997060455</v>
@@ -35665,7 +35665,7 @@
         <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924719</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902405</v>
@@ -35723,19 +35723,19 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>224.3390294385614</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>237.2862717533515</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
         <v>557.48457599928</v>
@@ -35744,7 +35744,7 @@
         <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>37.00975247789214</v>
@@ -35963,28 +35963,28 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>188.9220579561602</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
         <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>311.9917356041949</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36048,7 +36048,7 @@
         <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010493</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
@@ -36060,7 +36060,7 @@
         <v>295.631773306625</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998997</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,13 +36118,13 @@
         <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396405</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
         <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462675</v>
       </c>
       <c r="M20" t="n">
         <v>735.300110790295</v>
@@ -36200,10 +36200,10 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>188.9220579561602</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
@@ -36215,13 +36215,13 @@
         <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>314.9434509778015</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36352,10 +36352,10 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396405</v>
       </c>
       <c r="K23" t="n">
         <v>479.4543240367771</v>
@@ -36434,10 +36434,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>57.65947400496659</v>
       </c>
       <c r="K24" t="n">
-        <v>188.9220579561602</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>500.3288951674331</v>
@@ -36446,13 +36446,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>188.9220579561602</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>369.8203919190983</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>132.4173135558158</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>55.9645526312509</v>
       </c>
       <c r="M33" t="n">
-        <v>592.1338044402476</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,25 +37224,25 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066232</v>
       </c>
       <c r="Q34" t="n">
         <v>120.4022572998984</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,31 +37382,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>592.1338044402476</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>399.073578864197</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,28 +37622,28 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>25.73094315394571</v>
+        <v>27.13475084531527</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317199</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396418</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367768</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462685</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902944</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193513</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243157</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683809</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924725</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902403</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678994</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>94.75954470991886</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238449</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625074</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.0464832629533</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096348</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191313</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010449</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P43" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066248</v>
       </c>
       <c r="Q43" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>556.4534171013642</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
